--- a/docs/PT3/PT3_13.11.2024_output.xlsx
+++ b/docs/PT3/PT3_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731611175.3671892</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731611176.1184158</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611175.3671892.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611176.1184158.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>135.12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.69</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731611177.7055502</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731611178.3608892</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611177.7055502.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611178.3608892.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.84</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731611187.859768</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731611188.736829</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611187.859768.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611188.736829.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.39</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731611195.1129997</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731611196.0755653</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611195.1129997.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611196.0755653.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.15</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.28</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731611196.4955902</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731611196.5530367</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611196.4955902.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611196.5530367.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.35</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.48</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731611197.439726</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731611198.5035515</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611197.439726.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611198.5035515.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.25</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.38</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731611198.5185099</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731611199.0455992</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611198.5185099.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731611199.0455992.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>136.38</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731611208.8787024</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731611209.313921</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611208.8787024.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611209.313921.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7022</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7010.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-11.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731611220.813983</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731611220.9164073</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611220.813983.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611220.9164073.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7018.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7015</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731611221.058937</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731611221.457759</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611221.058937.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611221.457759.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7019</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7015</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731611224.4544</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731611225.8538945</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611224.4544.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611225.8538945.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>7030</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731611226.2147684</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731611226.2716131</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611226.2147684.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731611226.2716131.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>7034</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>7037</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-3</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731611229.7543547</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731611230.790962</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611229.7543547.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611230.790962.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>485.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>485.9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3499999999999659</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731611232.651069</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731611233.7503026</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611232.651069.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611233.7503026.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>487.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>488.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.299999999999955</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731611234.2404964</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731611235.0217588</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611234.2404964.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611235.0217588.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>488.45</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>489</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731611251.5504344</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731611254.2591581</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611251.5504344.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611254.2591581.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>488.75</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>490.35</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.600000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731611254.9918463</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731611255.6667597</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611254.9918463.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611255.6667597.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>490.25</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>489.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731611255.7275972</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731611256.2708027</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611255.7275972.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731611256.2708027.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>489.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>490.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1475,95 +1599,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731611258.4857135</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731611258.4857135.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+          <t>./test_images/ROSN1731611258.4857135.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>492.85</v>
       </c>
-      <c r="J21" t="n">
-        <v>492.85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731611259.0385458</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731611259.4611163</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611259.0385458.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611259.4611163.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>924</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>924.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731611264.6290593</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731611265.7744415</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611264.6290593.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611265.7744415.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>927.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>930</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731611267.230397</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731611267.6353047</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611267.230397.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611267.6353047.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>930</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>927.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731611270.9550314</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731611271.141764</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611270.9550314.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611271.141764.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>927.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>926.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731611271.8235328</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731611273.8832455</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611271.8235328.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611273.8832455.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>928.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>927.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731611275.255478</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731611275.8905902</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611275.255478.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611275.8905902.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>927.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>928.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731611284.465825</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731611285.6796315</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611284.465825.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611285.6796315.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>930.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>931</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731611286.9820485</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731611287.0395744</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611286.9820485.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611287.0395744.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>932</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>932</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731611287.3472233</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731611287.5786102</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611287.3472233.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731611287.5786102.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>932.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>933</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731611289.3095884</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731611290.432927</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611289.3095884.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611290.432927.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>37.685</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>37.725</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731611292.0574698</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731611292.8324654</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611292.0574698.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611292.8324654.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>37.755</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>37.905</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731611294.6028438</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731611295.5564098</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611294.6028438.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611295.5564098.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>37.89</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>38.105</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2149999999999963</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731611297.4699254</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731611298.0574832</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611297.4699254.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611298.0574832.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.32</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.235</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.08500000000000085</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731611307.1382866</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731611307.9162219</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611307.1382866.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611307.9162219.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.15</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>38.19</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731611313.2942474</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731611313.5194745</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611313.2942474.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611313.5194745.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>38.24</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>38.37</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731611315.517384</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731611315.7454338</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611315.517384.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611315.7454338.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>38.385</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>38.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731611315.8526201</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731611315.9102564</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611315.8526201.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611315.9102564.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>38.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>38.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731611316.753021</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731611318.0667865</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611316.753021.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731611318.0667865.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>38.44</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>38.5</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2455,95 +2693,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731611318.1671233</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731611318.1671233.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+          <t>./test_images/MAGN1731611318.1671233.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>38.49</v>
       </c>
-      <c r="J40" t="n">
-        <v>38.49</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731611319.1103046</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731611320.0121226</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611319.1103046.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611320.0121226.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1232.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1231.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731611321.3907416</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731611321.491313</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611321.3907416.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611321.491313.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1230.4</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1228.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.600000000000136</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731611321.5479622</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731611322.6234136</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611321.5479622.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611322.6234136.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1227.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1230</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731611322.6393704</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731611322.7809365</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611322.6393704.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611322.7809365.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1230</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1230.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731611322.8389726</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731611323.889266</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611322.8389726.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611323.889266.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1230.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1233.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-3</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731611325.4422197</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731611326.0560515</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611325.4422197.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611326.0560515.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1235</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1237.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731611327.0446022</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731611327.913546</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611327.0446022.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611327.913546.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1235.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-1</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731611330.4103603</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731611332.0919657</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611330.4103603.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611332.0919657.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1234</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1237.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731611337.3755195</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731611337.9088204</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611337.3755195.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611337.9088204.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1219.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1221.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-1.800000000000182</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731611344.253953</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731611345.3054054</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611344.253953.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611345.3054054.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1226.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1230</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731611346.20774</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731611347.4278338</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611346.20774.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731611347.4278338.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1230</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1234.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731611349.1237786</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731611351.5747662</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611349.1237786.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611351.5747662.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>80.88</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>81.02</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731611354.8578377</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731611355.3447769</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611354.8578377.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611355.3447769.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>81.16</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>81.3</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731611355.9726033</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731611356.970833</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611355.9726033.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611356.970833.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>81.19</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>81.12</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731611367.1583166</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731611367.9144163</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611367.1583166.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611367.9144163.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>80.29000000000001</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>80.31999999999999</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.02999999999998693</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731611375.5083628</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731611376.3278828</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611375.5083628.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731611376.3278828.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>80.58</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>80.73</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731611377.9512393</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731611378.6646707</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611377.9512393.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611378.6646707.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.151</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.145</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731611382.3939724</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731611382.4906332</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.3939724.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.4906332.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.215</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.226</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3435,51 +3787,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731611382.5476775</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731611382.647577</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.5476775.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.647577.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.212</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.208</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3487,51 +3845,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731611382.7061746</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731611382.9555678</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.7061746.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611382.9555678.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>14.204</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>14.206</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3539,51 +3903,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731611392.7206762</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731611393.942152</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611392.7206762.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611393.942152.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>14.261</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>14.271</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.01000000000000156</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3591,51 +3961,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731611396.1649528</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731611398.021433</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611396.1649528.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611398.021433.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>14.212</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>14.179</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.03299999999999947</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3643,51 +4019,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731611399.0032837</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731611399.0631056</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611399.0032837.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611399.0631056.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>14.171</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>14.167</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3695,51 +4077,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731611399.1217897</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731611399.6553583</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611399.1217897.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611399.6553583.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>14.166</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>14.178</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.01200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3747,51 +4135,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731611402.832261</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731611404.5434115</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611402.832261.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611404.5434115.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>14.238</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>14.281</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.04300000000000104</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3799,51 +4193,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731611405.248307</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731611405.5334556</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611405.248307.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731611405.5334556.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>14.268</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>14.353</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.08499999999999908</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3851,95 +4251,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731611406.6922572</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731611406.6922572.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+          <t>./test_images/AFKS1731611406.6922572.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>14.355</v>
       </c>
-      <c r="J67" t="n">
-        <v>14.355</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731611415.0991795</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731611415.328791</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611415.0991795.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611415.328791.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>105.17</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>105.22</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3947,51 +4359,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731611415.7736838</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731611416.59174</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611415.7736838.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611416.59174.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>105.34</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>105.9</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3999,51 +4417,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731611416.827949</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731611416.887817</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611416.827949.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611416.887817.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>105.5</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>105.52</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4051,51 +4475,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731611417.030856</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731611419.3601131</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611417.030856.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611419.3601131.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>105.46</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>105.38</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4103,51 +4533,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731611421.6892922</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731611422.4776468</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611421.6892922.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611422.4776468.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>105.69</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>105.64</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4155,51 +4591,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731611425.416864</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731611426.3317363</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611425.416864.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611426.3317363.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>105.34</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>105.29</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4207,51 +4649,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731611429.6147938</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731611433.2155561</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611429.6147938.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611433.2155561.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>105</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>105.29</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2900000000000063</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -4259,51 +4707,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731611433.232485</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731611434.2553864</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611433.232485.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611434.2553864.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>105.29</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>105.34</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4311,51 +4765,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731611435.472406</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731611436.6637843</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611435.472406.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731611436.6637843.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>105.65</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>106.03</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4363,51 +4823,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731611438.0775857</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731611438.9633548</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611438.0775857.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611438.9633548.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>347.75</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>347.68</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4415,51 +4881,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731611446.2467227</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731611446.9084625</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611446.2467227.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611446.9084625.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>351.51</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>351.35</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.1599999999999682</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4467,51 +4939,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731611454.4348621</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731611457.1546066</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611454.4348621.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611457.1546066.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>350.12</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>349.03</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1.090000000000032</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4519,51 +4997,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731611457.825822</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731611458.2089462</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611457.825822.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611458.2089462.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>349.34</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>350.6</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-1.260000000000048</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -4571,51 +5055,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731611461.206031</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731611463.5108783</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611461.206031.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731611463.5108783.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>350.98</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>351.47</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4623,51 +5113,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731611465.67822</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731611466.391325</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611465.67822.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611466.391325.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2775.9</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2776.4</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.5</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4675,51 +5171,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731611470.1224446</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731611471.066879</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611470.1224446.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611471.066879.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>2780</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>2782</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>2</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4727,51 +5229,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731611473.1638372</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731611473.7934349</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611473.1638372.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611473.7934349.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>2787.4</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-1.650000000000091</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4779,51 +5287,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731611476.499335</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731611477.058194</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611476.499335.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611477.058194.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2786.55</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2786.65</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.09999999999990905</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -4831,51 +5345,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731611482.8838363</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731611483.4171243</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611482.8838363.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611483.4171243.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2779.2</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2778.85</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.3499999999999091</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4883,51 +5403,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731611490.0561664</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731611490.9572427</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611490.0561664.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611490.9572427.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>2786.3</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>2789.85</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>3.549999999999727</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4935,51 +5461,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731611491.0568347</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731611491.1985633</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611491.0568347.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611491.1985633.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2788.75</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>2790.45</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.699999999999818</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4987,51 +5519,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731611491.965632</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731611493.11295</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611491.965632.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731611493.11295.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>2790.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>2794.25</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>3.75</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -5039,95 +5577,107 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731611493.8195016</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731611493.8195016.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+          <t>./test_images/MXI1731611493.8195016.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2792.4</v>
       </c>
-      <c r="J90" t="n">
-        <v>2792.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.799999999999727</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731611494.0804799</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731611494.1363218</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611494.0804799.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611494.1363218.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>591.9</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>591.9</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5135,51 +5685,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731611499.3214374</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731611500.0673354</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611499.3214374.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611500.0673354.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>594.1</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>593.7</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5187,51 +5743,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731611500.4504404</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731611501.7567356</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611500.4504404.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611501.7567356.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>595</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>595.9</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -5239,51 +5801,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731611501.7736902</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731611502.8296192</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611501.7736902.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611502.8296192.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>595.9</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>596</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5291,51 +5859,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731611509.5132887</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731611509.6960022</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611509.5132887.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611509.6960022.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>591</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>591.2</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5343,51 +5917,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731611509.7538495</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731611509.9825947</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611509.7538495.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611509.9825947.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>591.6</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>590.2</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5395,51 +5975,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731611511.4399104</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731611513.9059954</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611511.4399104.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611513.9059954.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>589.6</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>590.1</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -5447,51 +6033,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731611519.7479286</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731611520.0720823</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611519.7479286.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611520.0720823.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>591.7</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>592.7</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5499,51 +6091,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731611520.6306837</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731611522.1623597</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611520.6306837.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/TATN1731611522.1623597.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>592.5</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>594</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>1.5</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5605,19 +6203,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1660000000000004</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01509090909090913</v>
+        <v>0.01636363636363634</v>
       </c>
       <c r="E2" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -5649,19 +6247,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4849999999999923</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04849999999999923</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -5693,19 +6291,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.09999999999945</v>
+        <v>12.89999999999918</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.122222222222162</v>
+        <v>1.433333333333242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -5781,19 +6379,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.049999999999955</v>
+        <v>1.549999999999955</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1499999999999935</v>
+        <v>0.2214285714285649</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
